--- a/Docs/packets.xlsx
+++ b/Docs/packets.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leif\GitHub\GemHunt\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF7F14B-9746-44B9-ABF9-F5AA00565B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF0F80-DCA8-439F-802F-01D07E041EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Server to Client</t>
   </si>
@@ -55,6 +66,18 @@
   </si>
   <si>
     <t>Health (%)</t>
+  </si>
+  <si>
+    <t>Client to Server</t>
+  </si>
+  <si>
+    <t>Packet type  (always 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move direction -&gt; </t>
+  </si>
+  <si>
+    <t>Action (Fire button)</t>
   </si>
 </sst>
 </file>
@@ -106,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +165,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -171,7 +200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -179,11 +208,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
@@ -195,11 +225,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
+    <cellStyle name="40% - Accent4" xfId="6" builtinId="43"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -481,530 +514,817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C93"/>
+  <dimension ref="B2:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="E2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="str">
+        <f>B4</f>
+        <v>Offset</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>2</v>
+      </c>
+      <c r="K6" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="14">
+        <v>4</v>
+      </c>
+      <c r="J7" s="14">
+        <v>5</v>
+      </c>
+      <c r="K7" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>24</v>
       </c>
       <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>25</v>
       </c>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>26</v>
       </c>
       <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>27</v>
       </c>
       <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>28</v>
       </c>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>29</v>
       </c>
       <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>31</v>
       </c>
       <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>33</v>
       </c>
       <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>34</v>
       </c>
       <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>35</v>
       </c>
       <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>37</v>
       </c>
       <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>38</v>
       </c>
       <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>39</v>
       </c>
       <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>40</v>
       </c>
       <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>41</v>
       </c>
       <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>42</v>
       </c>
       <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>43</v>
       </c>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44</v>
       </c>
       <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>45</v>
       </c>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>46</v>
       </c>
       <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>47</v>
       </c>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>48</v>
       </c>
       <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>49</v>
       </c>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>50</v>
       </c>
       <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>51</v>
       </c>
       <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>52</v>
       </c>
       <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>53</v>
       </c>
       <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>54</v>
       </c>
       <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>55</v>
       </c>
       <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>56</v>
       </c>
       <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>57</v>
       </c>
       <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>58</v>
       </c>
       <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>59</v>
       </c>
       <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>60</v>
       </c>
       <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>61</v>
       </c>
       <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>62</v>
       </c>
       <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>63</v>
       </c>
       <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>64</v>
       </c>
       <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>65</v>
       </c>
       <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>66</v>
       </c>
       <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>67</v>
       </c>
       <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>68</v>
       </c>
       <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>69</v>
       </c>
       <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>70</v>
       </c>
       <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>71</v>
       </c>
       <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>72</v>
       </c>
       <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>73</v>
       </c>
       <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+    </row>
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>74</v>
       </c>
       <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+    </row>
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>75</v>
       </c>
       <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>76</v>
       </c>
       <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+    </row>
+    <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>77</v>
       </c>
       <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>78</v>
       </c>
       <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>79</v>
       </c>
       <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>80</v>
       </c>
       <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>81</v>
       </c>
       <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I86" s="14">
+        <v>7</v>
+      </c>
+      <c r="J86" s="14">
+        <v>8</v>
+      </c>
+      <c r="K86" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>82</v>
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
         <v>83</v>
       </c>
@@ -1012,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
         <v>84</v>
       </c>
@@ -1020,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>85</v>
       </c>
@@ -1028,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
         <v>86</v>
       </c>
@@ -1036,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
         <v>87</v>
       </c>
@@ -1044,7 +1364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="11">
         <v>88</v>
       </c>

--- a/Docs/packets.xlsx
+++ b/Docs/packets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Leif\GitHub\GemHunt\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF0F80-DCA8-439F-802F-01D07E041EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C553D4C-0B28-4A4D-9BF2-C684E2BA534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,12 +53,6 @@
     <t>Score MSB</t>
   </si>
   <si>
-    <t>Sound Counter</t>
-  </si>
-  <si>
-    <t>Sound FX number</t>
-  </si>
-  <si>
     <t>Number of players</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>Action (Fire button)</t>
+  </si>
+  <si>
+    <t>Sound Counter (increment on each new sound)</t>
+  </si>
+  <si>
+    <t>Sound FX number to play</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
@@ -227,6 +227,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -517,13 +520,16 @@
   <dimension ref="B2:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -531,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -554,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -562,22 +568,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14">
+        <v>10</v>
+      </c>
+      <c r="I6" s="16">
+        <v>5</v>
+      </c>
+      <c r="J6" s="16">
         <v>1</v>
       </c>
-      <c r="J6" s="14">
-        <v>2</v>
-      </c>
-      <c r="K6" s="14">
-        <v>3</v>
+      <c r="K6" s="16">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -589,16 +595,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="14">
+        <v>11</v>
+      </c>
+      <c r="I7" s="16">
         <v>4</v>
       </c>
-      <c r="J7" s="14">
-        <v>5</v>
-      </c>
-      <c r="K7" s="14">
-        <v>6</v>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
@@ -606,716 +612,716 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>24</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>25</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>26</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>27</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>28</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>29</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>31</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>33</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
     </row>
     <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>34</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
     </row>
     <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>35</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>37</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
     </row>
     <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>38</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
     </row>
     <row r="44" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>39</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
     </row>
     <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>40</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
     </row>
     <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>41</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
     </row>
     <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>42</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
     </row>
     <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>43</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
     </row>
     <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
     </row>
     <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>45</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
     </row>
     <row r="51" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>46</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
     </row>
     <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>47</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
     </row>
     <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>48</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
     </row>
     <row r="54" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>49</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
     </row>
     <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>50</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
     </row>
     <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>51</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
     </row>
     <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>52</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
     </row>
     <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>53</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
     </row>
     <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>54</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
     </row>
     <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>55</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
     </row>
     <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>56</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>57</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>58</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
     </row>
     <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>59</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
     </row>
     <row r="65" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>60</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
     </row>
     <row r="66" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>61</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
     </row>
     <row r="67" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>62</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
     </row>
     <row r="68" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>63</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
     </row>
     <row r="69" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>64</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
     </row>
     <row r="70" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>65</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
     </row>
     <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>66</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
     </row>
     <row r="72" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>67</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
     </row>
     <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>68</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
     </row>
     <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>69</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
     </row>
     <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>70</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
     </row>
     <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>71</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
     </row>
     <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>72</v>
       </c>
       <c r="C77" s="2"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
     </row>
     <row r="78" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>73</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
     </row>
     <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>74</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
     </row>
     <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>75</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
     </row>
     <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>76</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
     </row>
     <row r="82" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>77</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
     </row>
     <row r="83" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>78</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
     </row>
     <row r="84" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>79</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
     </row>
     <row r="85" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>80</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>81</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="I86" s="14">
-        <v>7</v>
-      </c>
-      <c r="J86" s="14">
-        <v>8</v>
-      </c>
-      <c r="K86" s="14">
-        <v>9</v>
+      <c r="I86" s="16">
+        <v>6</v>
+      </c>
+      <c r="J86" s="16">
+        <v>2</v>
+      </c>
+      <c r="K86" s="16">
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
@@ -1345,7 +1351,7 @@
         <v>85</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
@@ -1353,7 +1359,7 @@
         <v>86</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
@@ -1361,7 +1367,7 @@
         <v>87</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
@@ -1369,7 +1375,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
